--- a/excel/IP1b.xlsx
+++ b/excel/IP1b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Documents/IP1b/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F4E4A6-818A-984D-8297-3D1A39D8326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B9B04F-B929-9242-BCFE-4770389393DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="0" windowWidth="12240" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OD" sheetId="2" r:id="rId1"/>
@@ -599,13 +599,13 @@
     <t>calculated</t>
   </si>
   <si>
-    <t>1;38</t>
-  </si>
-  <si>
     <t>This is the plan to make in Lindo so that the system is optimised</t>
   </si>
   <si>
     <t>Summary table to calculate the Ideal buffer time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra constraint so train in aarshot 30 min appart </t>
   </si>
 </sst>
 </file>
@@ -1021,63 +1021,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1090,37 +1033,19 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1148,6 +1073,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,6 +1126,45 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3323,10 +3323,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3605,19 +3601,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
@@ -4423,10 +4419,10 @@
       </c>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O31" s="34" t="s">
+      <c r="O31" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="34"/>
+      <c r="P31" s="52"/>
       <c r="Q31" s="5">
         <f>SUM(Q2:Q30)</f>
         <v>198400</v>
@@ -4862,49 +4858,49 @@
       <c r="M12" s="15"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="G15" s="40" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="G15" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="K15" s="38" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="K15" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="O15" s="41" t="s">
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="O15" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
@@ -4926,7 +4922,7 @@
       <c r="M17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="56" t="s">
         <v>1</v>
       </c>
       <c r="P17" s="16" t="s">
@@ -4950,7 +4946,7 @@
         <f>F4</f>
         <v>119</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="59" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
@@ -4960,7 +4956,7 @@
         <f>E3+E4</f>
         <v>3491</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="56" t="s">
         <v>2</v>
       </c>
       <c r="L18" s="16" t="s">
@@ -4969,7 +4965,7 @@
       <c r="M18" s="16">
         <v>1745</v>
       </c>
-      <c r="O18" s="39"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="16" t="s">
         <v>96</v>
       </c>
@@ -4991,7 +4987,7 @@
         <f>D6</f>
         <v>121</v>
       </c>
-      <c r="G19" s="42"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="16" t="s">
         <v>80</v>
       </c>
@@ -4999,14 +4995,14 @@
         <f>E6+E7+E8</f>
         <v>8422</v>
       </c>
-      <c r="K19" s="37"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="16" t="s">
         <v>89</v>
       </c>
       <c r="M19" s="16">
         <v>4227</v>
       </c>
-      <c r="O19" s="39"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="16" t="s">
         <v>97</v>
       </c>
@@ -5028,7 +5024,7 @@
         <f>J6</f>
         <v>8422</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -5037,7 +5033,7 @@
       <c r="I20" s="16">
         <v>14474</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="56" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="16" t="s">
@@ -5046,7 +5042,7 @@
       <c r="M20" s="16">
         <v>43423</v>
       </c>
-      <c r="O20" s="39"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="16" t="s">
         <v>98</v>
       </c>
@@ -5067,21 +5063,21 @@
       <c r="E21" s="7">
         <v>152</v>
       </c>
-      <c r="G21" s="42"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="16" t="s">
         <v>82</v>
       </c>
       <c r="I21" s="16">
         <v>7718</v>
       </c>
-      <c r="K21" s="39"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="16" t="s">
         <v>91</v>
       </c>
       <c r="M21" s="16">
         <v>23155</v>
       </c>
-      <c r="O21" s="39"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="16" t="s">
         <v>105</v>
       </c>
@@ -5102,21 +5098,21 @@
       <c r="E22" s="7">
         <v>136</v>
       </c>
-      <c r="G22" s="42"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="16" t="s">
         <v>83</v>
       </c>
       <c r="I22" s="16">
         <v>4890</v>
       </c>
-      <c r="K22" s="37"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="16" t="s">
         <v>92</v>
       </c>
       <c r="M22" s="16">
         <v>0</v>
       </c>
-      <c r="O22" s="37"/>
+      <c r="O22" s="58"/>
       <c r="P22" s="16" t="s">
         <v>106</v>
       </c>
@@ -5137,7 +5133,7 @@
       <c r="E23" s="7">
         <v>298</v>
       </c>
-      <c r="O23" s="36" t="s">
+      <c r="O23" s="56" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="16" t="s">
@@ -5160,7 +5156,7 @@
       <c r="E24" s="7">
         <v>245</v>
       </c>
-      <c r="O24" s="37"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="16" t="s">
         <v>102</v>
       </c>
@@ -5181,7 +5177,7 @@
       <c r="E25" s="7">
         <v>14671</v>
       </c>
-      <c r="O25" s="36" t="s">
+      <c r="O25" s="56" t="s">
         <v>17</v>
       </c>
       <c r="P25" s="16" t="s">
@@ -5192,16 +5188,16 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="12">
         <f>SUM(E18:E25)</f>
         <v>24164</v>
       </c>
-      <c r="O26" s="37"/>
+      <c r="O26" s="58"/>
       <c r="P26" s="16" t="s">
         <v>103</v>
       </c>
@@ -5210,7 +5206,7 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O27" s="36" t="s">
+      <c r="O27" s="56" t="s">
         <v>5</v>
       </c>
       <c r="P27" s="16" t="s">
@@ -5221,7 +5217,7 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O28" s="37"/>
+      <c r="O28" s="58"/>
       <c r="P28" s="16" t="s">
         <v>101</v>
       </c>
@@ -5231,6 +5227,10 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K22"/>
     <mergeCell ref="G15:I16"/>
     <mergeCell ref="O15:Q16"/>
     <mergeCell ref="O17:O22"/>
@@ -5241,10 +5241,6 @@
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="K15:M16"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5255,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B66D937-5135-4512-B692-1C9B60D4D33E}">
   <dimension ref="B2:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="172" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5677,37 +5673,37 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="25"/>
       <c r="J15" s="26"/>
       <c r="N15" s="19"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="25"/>
       <c r="J16" s="26"/>
       <c r="N16" s="19"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
@@ -5846,7 +5842,7 @@
         <f>(H3)+((H4)/2)</f>
         <v>394</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="34" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5864,7 +5860,7 @@
         <f>D8+C8</f>
         <v>533</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="34" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5882,7 +5878,7 @@
         <f>H4/2</f>
         <v>149</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="34" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5899,48 +5895,48 @@
       <c r="E29" s="24">
         <v>0</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="12">
         <f>SUM(E18:E29)</f>
         <v>18882</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M31" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="79"/>
+      <c r="M31" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="66"/>
     </row>
     <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="82"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="69"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
     </row>
     <row r="34" spans="2:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="30" t="s">
@@ -5949,7 +5945,7 @@
       <c r="C34" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="36" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -5966,7 +5962,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="59" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -5978,23 +5974,23 @@
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="N35" s="42" t="s">
+      <c r="N35" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42" t="s">
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="R35" s="42" t="s">
+      <c r="R35" s="59" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="42"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="28" t="s">
         <v>154</v>
       </c>
@@ -6005,11 +6001,11 @@
       <c r="E36" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="37">
         <f>SUM(D35:D36)</f>
         <v>30937</v>
       </c>
-      <c r="G36" s="54">
+      <c r="G36" s="35">
         <f>E10+E12</f>
         <v>4000</v>
       </c>
@@ -6021,7 +6017,7 @@
         <f>E13</f>
         <v>34937</v>
       </c>
-      <c r="M36" s="42"/>
+      <c r="M36" s="59"/>
       <c r="N36" s="28" t="s">
         <v>46</v>
       </c>
@@ -6031,11 +6027,11 @@
       <c r="P36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -6048,30 +6044,30 @@
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="H37" s="31"/>
-      <c r="M37" s="69" t="s">
+      <c r="M37" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="N37" s="69">
+      <c r="N37" s="44">
         <f>E18</f>
         <v>4817</v>
       </c>
-      <c r="O37" s="69">
+      <c r="O37" s="44">
         <f>D37</f>
         <v>5109</v>
       </c>
-      <c r="P37" s="69">
+      <c r="P37" s="44">
         <f>C55</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="69">
+      <c r="Q37" s="44">
         <v>1.38</v>
       </c>
-      <c r="R37" s="69">
+      <c r="R37" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="42"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="28" t="s">
         <v>156</v>
       </c>
@@ -6082,7 +6078,7 @@
       <c r="E38" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="37">
         <f>SUM(D37:D38)</f>
         <v>58732</v>
       </c>
@@ -6094,30 +6090,30 @@
         <f>H13</f>
         <v>58732</v>
       </c>
-      <c r="M38" s="69" t="s">
+      <c r="M38" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="N38" s="69">
+      <c r="N38" s="44">
         <f>E19</f>
         <v>4817</v>
       </c>
-      <c r="O38" s="69">
+      <c r="O38" s="44">
         <f>D38</f>
         <v>53623</v>
       </c>
-      <c r="P38" s="69">
+      <c r="P38" s="44">
         <f>C57</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="69">
+      <c r="Q38" s="44">
         <v>1.62</v>
       </c>
-      <c r="R38" s="69">
+      <c r="R38" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="59" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -6130,30 +6126,30 @@
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="H39" s="31"/>
-      <c r="M39" s="69" t="s">
+      <c r="M39" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="N39" s="69">
+      <c r="N39" s="44">
         <f t="shared" ref="N39:N48" si="1">E20</f>
         <v>119</v>
       </c>
-      <c r="O39" s="69">
+      <c r="O39" s="44">
         <f>D35</f>
         <v>22515</v>
       </c>
-      <c r="P39" s="69">
+      <c r="P39" s="44">
         <f>C63</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="69">
+      <c r="Q39" s="44">
         <v>5</v>
       </c>
-      <c r="R39" s="69">
+      <c r="R39" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="42"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="28" t="s">
         <v>158</v>
       </c>
@@ -6164,30 +6160,30 @@
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="H40" s="31"/>
-      <c r="M40" s="69" t="s">
+      <c r="M40" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="N40" s="69">
+      <c r="N40" s="44">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="O40" s="69">
+      <c r="O40" s="44">
         <f>D36</f>
         <v>8422</v>
       </c>
-      <c r="P40" s="69">
+      <c r="P40" s="44">
         <f>C52</f>
         <v>8422</v>
       </c>
-      <c r="Q40" s="69">
+      <c r="Q40" s="44">
         <v>1.38</v>
       </c>
-      <c r="R40" s="69">
+      <c r="R40" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="42"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="28" t="s">
         <v>159</v>
       </c>
@@ -6198,11 +6194,11 @@
       <c r="E41" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="37">
         <f>SUM(D39:D41)</f>
         <v>27082</v>
       </c>
-      <c r="G41" s="54">
+      <c r="G41" s="35">
         <f>I11</f>
         <v>50000</v>
       </c>
@@ -6214,30 +6210,30 @@
         <f>I13</f>
         <v>77082</v>
       </c>
-      <c r="M41" s="69" t="s">
+      <c r="M41" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="N41" s="69">
+      <c r="N41" s="44">
         <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="O41" s="69">
+      <c r="O41" s="44">
         <f>D45</f>
         <v>4377</v>
       </c>
-      <c r="P41" s="69">
+      <c r="P41" s="44">
         <f>C64</f>
         <v>19024</v>
       </c>
-      <c r="Q41" s="69">
+      <c r="Q41" s="44">
         <v>1.3</v>
       </c>
-      <c r="R41" s="69">
+      <c r="R41" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -6250,30 +6246,30 @@
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="H42" s="31"/>
-      <c r="M42" s="69" t="s">
+      <c r="M42" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="N42" s="69">
+      <c r="N42" s="44">
         <f t="shared" si="1"/>
         <v>980</v>
       </c>
-      <c r="O42" s="69">
+      <c r="O42" s="44">
         <f>D44</f>
         <v>14992</v>
       </c>
-      <c r="P42" s="69">
+      <c r="P42" s="44">
         <f>C60</f>
         <v>3002</v>
       </c>
-      <c r="Q42" s="69">
+      <c r="Q42" s="44">
         <v>2.31</v>
       </c>
-      <c r="R42" s="69">
+      <c r="R42" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="42"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="28" t="s">
         <v>161</v>
       </c>
@@ -6284,30 +6280,30 @@
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="H43" s="31"/>
-      <c r="M43" s="69" t="s">
+      <c r="M43" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="N43" s="69">
+      <c r="N43" s="44">
         <f t="shared" si="1"/>
         <v>4227</v>
       </c>
-      <c r="O43" s="69">
+      <c r="O43" s="44">
         <f>D36</f>
         <v>8422</v>
       </c>
-      <c r="P43" s="69">
+      <c r="P43" s="44">
         <f>C52</f>
         <v>8422</v>
       </c>
-      <c r="Q43" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="R43" s="69">
+      <c r="Q43" s="44">
+        <v>1.38</v>
+      </c>
+      <c r="R43" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="42"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="28" t="s">
         <v>162</v>
       </c>
@@ -6318,30 +6314,30 @@
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="H44" s="31"/>
-      <c r="M44" s="69" t="s">
+      <c r="M44" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="N44" s="69">
+      <c r="N44" s="44">
         <f t="shared" si="1"/>
         <v>1745</v>
       </c>
-      <c r="O44" s="69">
+      <c r="O44" s="44">
         <f>D35</f>
         <v>22515</v>
       </c>
-      <c r="P44" s="69">
+      <c r="P44" s="44">
         <f>C63</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="69">
+      <c r="Q44" s="44">
         <v>5</v>
       </c>
-      <c r="R44" s="69">
+      <c r="R44" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" s="42"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="28" t="s">
         <v>163</v>
       </c>
@@ -6352,7 +6348,7 @@
       <c r="E45" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="37">
         <f>SUM(D42:D45)</f>
         <v>36073</v>
       </c>
@@ -6364,280 +6360,294 @@
         <f>D13</f>
         <v>36073</v>
       </c>
-      <c r="M45" s="69" t="s">
+      <c r="M45" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="N45" s="69">
+      <c r="N45" s="44">
         <f t="shared" si="1"/>
         <v>394</v>
       </c>
-      <c r="O45" s="69">
+      <c r="O45" s="44">
         <f>D40</f>
         <v>5554.5</v>
       </c>
-      <c r="P45" s="69">
+      <c r="P45" s="44">
         <f>C61</f>
         <v>12151.5</v>
       </c>
-      <c r="Q45" s="69">
+      <c r="Q45" s="44">
         <v>5</v>
       </c>
-      <c r="R45" s="69">
+      <c r="R45" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M46" s="69" t="s">
+      <c r="M46" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="N46" s="69">
+      <c r="N46" s="44">
         <f t="shared" si="1"/>
         <v>533</v>
       </c>
-      <c r="O46" s="69">
+      <c r="O46" s="44">
         <f>D41</f>
         <v>14474</v>
       </c>
-      <c r="P46" s="69">
+      <c r="P46" s="44">
         <f>C56</f>
         <v>43423</v>
       </c>
-      <c r="Q46" s="69">
+      <c r="Q46" s="44">
         <v>1.62</v>
       </c>
-      <c r="R46" s="69">
+      <c r="R46" s="44">
         <v>30</v>
       </c>
-      <c r="S46" s="53" t="s">
-        <v>187</v>
+      <c r="S46" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M47" s="69" t="s">
+      <c r="M47" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="N47" s="69">
+      <c r="N47" s="44">
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="O47" s="69">
+      <c r="O47" s="44">
         <f>D39</f>
         <v>7053.5</v>
       </c>
-      <c r="P47" s="69">
+      <c r="P47" s="44">
         <f>C65</f>
         <v>26674.5</v>
       </c>
-      <c r="Q47" s="69">
+      <c r="Q47" s="44">
         <v>5</v>
       </c>
-      <c r="R47" s="69">
+      <c r="R47" s="44">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="M48" s="69" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="M48" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="N48" s="69">
+      <c r="N48" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O48" s="69">
+      <c r="O48" s="44">
         <f>D41</f>
         <v>14474</v>
       </c>
-      <c r="P48" s="69">
+      <c r="P48" s="44">
         <f>C56</f>
         <v>43423</v>
       </c>
-      <c r="Q48" s="69">
+      <c r="Q48" s="44">
         <v>1.62</v>
       </c>
-      <c r="R48" s="69">
+      <c r="R48" s="44">
         <v>30</v>
       </c>
-      <c r="S48" s="53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="70" t="s">
+      <c r="S48" s="34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="71">
+      <c r="C50" s="46">
         <f>NewVolumes!F8+NewVolumes!F9</f>
         <v>4109</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="70" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="72" t="s">
+      <c r="R50" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="48">
         <f>NewVolumes!E8+NewVolumes!E7+NewVolumes!J7+NewVolumes!L7+NewVolumes!L8+NewVolumes!J8</f>
         <v>7945</v>
       </c>
-      <c r="D51" s="64"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="72" t="s">
+      <c r="D51" s="71"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="48">
         <f>NewVolumes!J6</f>
         <v>8422</v>
       </c>
-      <c r="D52" s="64"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="72" t="s">
+      <c r="D52" s="71"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="73">
+      <c r="C53" s="48">
         <f>NewVolumes!G5+NewVolumes!G12</f>
         <v>7945</v>
       </c>
-      <c r="D53" s="64"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="72" t="s">
+      <c r="D53" s="71"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="73">
+      <c r="C54" s="48">
         <f>NewVolumes!H6+NewVolumes!K6</f>
         <v>4109</v>
       </c>
-      <c r="D54" s="64"/>
-    </row>
-    <row r="55" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="74" t="s">
+      <c r="D54" s="71"/>
+    </row>
+    <row r="55" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="75">
-        <v>0</v>
-      </c>
-      <c r="D55" s="67"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="70" t="s">
+      <c r="C55" s="50">
+        <v>0</v>
+      </c>
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="71">
+      <c r="C56" s="46">
         <f>NewVolumes!K8+NewVolumes!K7</f>
         <v>43423</v>
       </c>
-      <c r="D56" s="62" t="s">
+      <c r="D56" s="70" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="74" t="s">
+    <row r="57" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="75">
-        <v>0</v>
-      </c>
-      <c r="D57" s="67"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="70" t="s">
+      <c r="C57" s="50">
+        <v>0</v>
+      </c>
+      <c r="D57" s="72"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="71">
+      <c r="C58" s="46">
         <f>NewVolumes!C9+NewVolumes!C11</f>
         <v>3002</v>
       </c>
-      <c r="D58" s="62" t="s">
+      <c r="D58" s="70" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="72" t="s">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="73">
-        <v>0</v>
-      </c>
-      <c r="D59" s="64"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="72" t="s">
+      <c r="C59" s="48">
+        <v>0</v>
+      </c>
+      <c r="D59" s="71"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="73">
+      <c r="C60" s="48">
         <f>NewVolumes!I3+NewVolumes!K3</f>
         <v>3002</v>
       </c>
-      <c r="D60" s="64"/>
-    </row>
-    <row r="61" spans="2:4" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="74" t="s">
+      <c r="D60" s="71"/>
+    </row>
+    <row r="61" spans="2:18" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="75">
+      <c r="C61" s="50">
         <f>NewVolumes!K3+NewVolumes!K4/2</f>
         <v>12151.5</v>
       </c>
-      <c r="D61" s="67"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="60" t="s">
+      <c r="D61" s="72"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C62" s="39">
         <f>NewVolumes!E11+NewVolumes!E9+NewVolumes!J11+NewVolumes!L11+NewVolumes!J9+NewVolumes!L9</f>
         <v>19024</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="70" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="63" t="s">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="40" t="s">
         <v>177</v>
       </c>
       <c r="C63" s="29">
         <f>NewVolumes!L3+NewVolumes!L4</f>
         <v>0</v>
       </c>
-      <c r="D63" s="64"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="63" t="s">
+      <c r="D63" s="71"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C64" s="29">
         <f>NewVolumes!I5+NewVolumes!K5+NewVolumes!I12+NewVolumes!K12+NewVolumes!I10+NewVolumes!K10</f>
         <v>19024</v>
       </c>
-      <c r="D64" s="64"/>
+      <c r="D64" s="71"/>
     </row>
     <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="66">
+      <c r="C65" s="42">
         <f>NewVolumes!K12+NewVolumes!K5+NewVolumes!K4/2</f>
         <v>26674.5</v>
       </c>
-      <c r="D65" s="67"/>
+      <c r="D65" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B48:D49"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="M31:R32"/>
@@ -6645,17 +6655,6 @@
     <mergeCell ref="D62:D65"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6682,36 +6681,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
@@ -6738,11 +6737,11 @@
       <c r="I4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -7078,11 +7077,11 @@
         <f t="shared" si="0"/>
         <v>0.87255000000000005</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F15" s="16" t="s">
@@ -7265,32 +7264,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
@@ -7311,11 +7310,11 @@
       <c r="G4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="str">
@@ -7330,10 +7329,10 @@
         <f>C5*2/10000</f>
         <v>0.96340000000000003</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="44">
         <f>NewVolumes!K8+NewVolumes!K7</f>
         <v>43423</v>
       </c>
@@ -7364,14 +7363,14 @@
         <f t="shared" ref="D6:D16" si="0">C6*2/10000</f>
         <v>0.96340000000000003</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="44">
         <v>0</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G5:G20" si="1">1.5*F6/10000</f>
+        <f t="shared" ref="G6:G20" si="1">1.5*F6/10000</f>
         <v>0</v>
       </c>
       <c r="H6" s="32" t="s">
@@ -7393,10 +7392,10 @@
         <f t="shared" si="0"/>
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="44">
         <f>NewVolumes!E11+NewVolumes!E9+NewVolumes!J11+NewVolumes!L11+NewVolumes!J9+NewVolumes!L9</f>
         <v>19024</v>
       </c>
@@ -7423,10 +7422,10 @@
         <f t="shared" si="0"/>
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="44">
         <f>NewVolumes!K12+NewVolumes!K5+NewVolumes!K4/2</f>
         <v>26674.5</v>
       </c>
@@ -7453,10 +7452,10 @@
         <f t="shared" si="0"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="44">
         <f>NewVolumes!E11+NewVolumes!E9+NewVolumes!J11+NewVolumes!L11+NewVolumes!J9+NewVolumes!L9</f>
         <v>19024</v>
       </c>
@@ -7483,10 +7482,10 @@
         <f t="shared" si="0"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="44">
         <v>0</v>
       </c>
       <c r="G10" s="21">
@@ -7512,10 +7511,10 @@
         <f t="shared" si="0"/>
         <v>0.84540000000000004</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="44">
         <f>NewVolumes!G5+NewVolumes!G12</f>
         <v>7945</v>
       </c>
@@ -7542,10 +7541,10 @@
         <f t="shared" si="0"/>
         <v>0.34899999999999998</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="44">
         <f>NewVolumes!H6+NewVolumes!K6</f>
         <v>4109</v>
       </c>
@@ -7572,10 +7571,10 @@
         <f t="shared" si="0"/>
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="44">
         <v>0</v>
       </c>
       <c r="G13" s="21">
@@ -7601,10 +7600,10 @@
         <f t="shared" si="0"/>
         <v>0.1066</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="44">
         <f>NewVolumes!E8+NewVolumes!E7+NewVolumes!J7+NewVolumes!L7+NewVolumes!L8+NewVolumes!J8</f>
         <v>7945</v>
       </c>
@@ -7631,10 +7630,10 @@
         <f t="shared" si="0"/>
         <v>2.98E-2</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="44">
         <f>NewVolumes!F8+NewVolumes!F9</f>
         <v>4109</v>
       </c>
@@ -7661,10 +7660,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="44">
         <f>NewVolumes!J6</f>
         <v>8422</v>
       </c>
@@ -7681,10 +7680,10 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="44">
         <f>NewVolumes!C9+NewVolumes!C11</f>
         <v>3002</v>
       </c>
@@ -7702,10 +7701,10 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="44">
         <f>NewVolumes!K3+NewVolumes!K4/2</f>
         <v>12151.5</v>
       </c>
@@ -7713,17 +7712,17 @@
         <f t="shared" si="1"/>
         <v>1.8227249999999999</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="51">
         <f>NewVolumes!I3+NewVolumes!K3</f>
         <v>3002</v>
       </c>
@@ -7738,10 +7737,10 @@
       <c r="J19" s="32"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="51">
         <v>0</v>
       </c>
       <c r="G20" s="21">

--- a/excel/IP1b.xlsx
+++ b/excel/IP1b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Documents/IP1b/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B9B04F-B929-9242-BCFE-4770389393DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05E1BA-00BC-9A44-A588-17A9F4FCFE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OD" sheetId="2" r:id="rId1"/>
@@ -1079,20 +1079,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,7 +1109,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1126,36 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4858,49 +4858,49 @@
       <c r="M12" s="15"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="G15" s="54" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="K15" s="63" t="s">
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="K15" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="O15" s="55" t="s">
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="O15" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="M17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="56" t="s">
+      <c r="O17" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P17" s="16" t="s">
@@ -4946,7 +4946,7 @@
         <f>F4</f>
         <v>119</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="60" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
@@ -4956,7 +4956,7 @@
         <f>E3+E4</f>
         <v>3491</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="54" t="s">
         <v>2</v>
       </c>
       <c r="L18" s="16" t="s">
@@ -4987,7 +4987,7 @@
         <f>D6</f>
         <v>121</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="16" t="s">
         <v>80</v>
       </c>
@@ -4995,7 +4995,7 @@
         <f>E6+E7+E8</f>
         <v>8422</v>
       </c>
-      <c r="K19" s="58"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="16" t="s">
         <v>89</v>
       </c>
@@ -5024,7 +5024,7 @@
         <f>J6</f>
         <v>8422</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -5033,7 +5033,7 @@
       <c r="I20" s="16">
         <v>14474</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="54" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="16" t="s">
@@ -5063,7 +5063,7 @@
       <c r="E21" s="7">
         <v>152</v>
       </c>
-      <c r="G21" s="59"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="16" t="s">
         <v>82</v>
       </c>
@@ -5098,21 +5098,21 @@
       <c r="E22" s="7">
         <v>136</v>
       </c>
-      <c r="G22" s="59"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="16" t="s">
         <v>83</v>
       </c>
       <c r="I22" s="16">
         <v>4890</v>
       </c>
-      <c r="K22" s="58"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="16" t="s">
         <v>92</v>
       </c>
       <c r="M22" s="16">
         <v>0</v>
       </c>
-      <c r="O22" s="58"/>
+      <c r="O22" s="55"/>
       <c r="P22" s="16" t="s">
         <v>106</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="E23" s="7">
         <v>298</v>
       </c>
-      <c r="O23" s="56" t="s">
+      <c r="O23" s="54" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="16" t="s">
@@ -5156,7 +5156,7 @@
       <c r="E24" s="7">
         <v>245</v>
       </c>
-      <c r="O24" s="58"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="16" t="s">
         <v>102</v>
       </c>
@@ -5177,7 +5177,7 @@
       <c r="E25" s="7">
         <v>14671</v>
       </c>
-      <c r="O25" s="56" t="s">
+      <c r="O25" s="54" t="s">
         <v>17</v>
       </c>
       <c r="P25" s="16" t="s">
@@ -5188,16 +5188,16 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="12">
         <f>SUM(E18:E25)</f>
         <v>24164</v>
       </c>
-      <c r="O26" s="58"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="16" t="s">
         <v>103</v>
       </c>
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O27" s="56" t="s">
+      <c r="O27" s="54" t="s">
         <v>5</v>
       </c>
       <c r="P27" s="16" t="s">
@@ -5217,7 +5217,7 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O28" s="58"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="16" t="s">
         <v>101</v>
       </c>
@@ -5227,6 +5227,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G22"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="K15:M16"/>
     <mergeCell ref="K18:K19"/>
@@ -5234,11 +5239,6 @@
     <mergeCell ref="G15:I16"/>
     <mergeCell ref="O15:Q16"/>
     <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G22"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="O25:O26"/>
   </mergeCells>
@@ -5251,7 +5251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B66D937-5135-4512-B692-1C9B60D4D33E}">
   <dimension ref="B2:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="172" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="173" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
@@ -5673,12 +5673,12 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="25"/>
       <c r="J15" s="26"/>
       <c r="N15" s="19"/>
@@ -5687,10 +5687,10 @@
       <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="25"/>
       <c r="J16" s="26"/>
       <c r="N16" s="19"/>
@@ -5699,11 +5699,11 @@
       <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
@@ -5900,43 +5900,43 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="12">
         <f>SUM(E18:E29)</f>
         <v>18882</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M31" s="64" t="s">
+      <c r="M31" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="66"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="76"/>
     </row>
     <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="69"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="79"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
     </row>
     <row r="34" spans="2:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="30" t="s">
@@ -5962,7 +5962,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="60" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -5974,23 +5974,23 @@
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="M35" s="59" t="s">
+      <c r="M35" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="N35" s="59" t="s">
+      <c r="N35" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59" t="s">
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="R35" s="59" t="s">
+      <c r="R35" s="60" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="59"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="28" t="s">
         <v>154</v>
       </c>
@@ -6017,7 +6017,7 @@
         <f>E13</f>
         <v>34937</v>
       </c>
-      <c r="M36" s="59"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="28" t="s">
         <v>46</v>
       </c>
@@ -6027,11 +6027,11 @@
       <c r="P36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -6067,7 +6067,7 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="59"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="28" t="s">
         <v>156</v>
       </c>
@@ -6113,7 +6113,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -6149,7 +6149,7 @@
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="59"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="28" t="s">
         <v>158</v>
       </c>
@@ -6183,7 +6183,7 @@
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="59"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="28" t="s">
         <v>159</v>
       </c>
@@ -6233,7 +6233,7 @@
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -6269,7 +6269,7 @@
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="59"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="28" t="s">
         <v>161</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="59"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="28" t="s">
         <v>162</v>
       </c>
@@ -6337,7 +6337,7 @@
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" s="59"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="28" t="s">
         <v>163</v>
       </c>
@@ -6432,11 +6432,11 @@
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
       <c r="M48" s="44" t="s">
         <v>148</v>
       </c>
@@ -6463,9 +6463,9 @@
       </c>
     </row>
     <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="45" t="s">
@@ -6475,7 +6475,7 @@
         <f>NewVolumes!F8+NewVolumes!F9</f>
         <v>4109</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="69" t="s">
         <v>173</v>
       </c>
       <c r="R50" s="12" t="s">
@@ -6490,7 +6490,7 @@
         <f>NewVolumes!E8+NewVolumes!E7+NewVolumes!J7+NewVolumes!L7+NewVolumes!L8+NewVolumes!J8</f>
         <v>7945</v>
       </c>
-      <c r="D51" s="71"/>
+      <c r="D51" s="70"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="47" t="s">
@@ -6500,7 +6500,7 @@
         <f>NewVolumes!J6</f>
         <v>8422</v>
       </c>
-      <c r="D52" s="71"/>
+      <c r="D52" s="70"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="47" t="s">
@@ -6510,7 +6510,7 @@
         <f>NewVolumes!G5+NewVolumes!G12</f>
         <v>7945</v>
       </c>
-      <c r="D53" s="71"/>
+      <c r="D53" s="70"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="47" t="s">
@@ -6520,7 +6520,7 @@
         <f>NewVolumes!H6+NewVolumes!K6</f>
         <v>4109</v>
       </c>
-      <c r="D54" s="71"/>
+      <c r="D54" s="70"/>
     </row>
     <row r="55" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="49" t="s">
@@ -6529,7 +6529,7 @@
       <c r="C55" s="50">
         <v>0</v>
       </c>
-      <c r="D55" s="72"/>
+      <c r="D55" s="71"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="45" t="s">
@@ -6539,7 +6539,7 @@
         <f>NewVolumes!K8+NewVolumes!K7</f>
         <v>43423</v>
       </c>
-      <c r="D56" s="70" t="s">
+      <c r="D56" s="69" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       <c r="C57" s="50">
         <v>0</v>
       </c>
-      <c r="D57" s="72"/>
+      <c r="D57" s="71"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="45" t="s">
@@ -6560,7 +6560,7 @@
         <f>NewVolumes!C9+NewVolumes!C11</f>
         <v>3002</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="69" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       <c r="C59" s="48">
         <v>0</v>
       </c>
-      <c r="D59" s="71"/>
+      <c r="D59" s="70"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="47" t="s">
@@ -6581,7 +6581,7 @@
         <f>NewVolumes!I3+NewVolumes!K3</f>
         <v>3002</v>
       </c>
-      <c r="D60" s="71"/>
+      <c r="D60" s="70"/>
     </row>
     <row r="61" spans="2:18" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="49" t="s">
@@ -6591,7 +6591,7 @@
         <f>NewVolumes!K3+NewVolumes!K4/2</f>
         <v>12151.5</v>
       </c>
-      <c r="D61" s="72"/>
+      <c r="D61" s="71"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" s="38" t="s">
@@ -6601,7 +6601,7 @@
         <f>NewVolumes!E11+NewVolumes!E9+NewVolumes!J11+NewVolumes!L11+NewVolumes!J9+NewVolumes!L9</f>
         <v>19024</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="69" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
         <f>NewVolumes!L3+NewVolumes!L4</f>
         <v>0</v>
       </c>
-      <c r="D63" s="71"/>
+      <c r="D63" s="70"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="40" t="s">
@@ -6623,7 +6623,7 @@
         <f>NewVolumes!I5+NewVolumes!K5+NewVolumes!I12+NewVolumes!K12+NewVolumes!I10+NewVolumes!K10</f>
         <v>19024</v>
       </c>
-      <c r="D64" s="71"/>
+      <c r="D64" s="70"/>
     </row>
     <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="41" t="s">
@@ -6633,21 +6633,10 @@
         <f>NewVolumes!K12+NewVolumes!K5+NewVolumes!K4/2</f>
         <v>26674.5</v>
       </c>
-      <c r="D65" s="72"/>
+      <c r="D65" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B48:D49"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="M31:R32"/>
@@ -6655,6 +6644,17 @@
     <mergeCell ref="D62:D65"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6664,7 +6664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B93534-A3FD-4735-8ABC-474D5E73C3A5}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -6681,36 +6681,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
@@ -6737,11 +6737,11 @@
       <c r="I4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -7077,11 +7077,11 @@
         <f t="shared" si="0"/>
         <v>0.87255000000000005</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F15" s="16" t="s">
@@ -7249,10 +7249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CDF4A3-B970-43C2-9AE1-B11F771813DE}">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView zoomScale="134" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7263,35 +7263,35 @@
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="78" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>46</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="I4" s="81"/>
       <c r="J4" s="82"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="str">
         <f>NewVolumes!B18</f>
         <v>K10C21</v>
@@ -7349,8 +7349,12 @@
       <c r="J5" s="32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f>D5*3</f>
+        <v>2.8902000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="str">
         <f>NewVolumes!B19</f>
         <v>C10K21</v>
@@ -7378,8 +7382,12 @@
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" ref="L6:L16" si="2">D6*3</f>
+        <v>2.8902000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="str">
         <f>NewVolumes!B20</f>
         <v>E10K20</v>
@@ -7408,8 +7416,12 @@
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="str">
         <f>NewVolumes!B21</f>
         <v>K11E21</v>
@@ -7438,8 +7450,12 @@
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>7.2599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="str">
         <f>NewVolumes!B22</f>
         <v>E11M10</v>
@@ -7468,8 +7484,12 @@
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.58800000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="str">
         <f>NewVolumes!B23</f>
         <v>M11E10</v>
@@ -7497,8 +7517,12 @@
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.58800000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="str">
         <f>NewVolumes!B24</f>
         <v>K11E10</v>
@@ -7527,8 +7551,12 @@
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>2.5362</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="str">
         <f>NewVolumes!B25</f>
         <v>E10K11</v>
@@ -7557,8 +7585,12 @@
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="str">
         <f>NewVolumes!B26</f>
         <v>M11C20</v>
@@ -7586,8 +7618,12 @@
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.2364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="str">
         <f>NewVolumes!B27</f>
         <v>C11M20</v>
@@ -7616,8 +7652,12 @@
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.31979999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="str">
         <f>NewVolumes!B28</f>
         <v>E11C20</v>
@@ -7646,8 +7686,12 @@
       </c>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>8.9400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="str">
         <f>NewVolumes!B29</f>
         <v>C11E20</v>
@@ -7676,8 +7720,12 @@
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="E17" s="44" t="s">
@@ -7696,8 +7744,12 @@
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f>SUM(L5:L16)</f>
+        <v>11.329200000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -7718,7 +7770,7 @@
       <c r="I18" s="81"/>
       <c r="J18" s="82"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E19" s="44" t="s">
         <v>41</v>
       </c>
@@ -7736,7 +7788,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E20" s="44" t="s">
         <v>138</v>
       </c>
@@ -7753,70 +7805,70 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H21" s="32" t="s">
         <v>123</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H22" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H23" s="32" t="s">
         <v>125</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H24" s="32" t="s">
         <v>126</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H25" s="32" t="s">
         <v>127</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H26" s="32" t="s">
         <v>128</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H27" s="32" t="s">
         <v>129</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H28" s="33" t="s">
         <v>130</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H29" s="32" t="s">
         <v>131</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H30" s="32" t="s">
         <v>120</v>
       </c>

--- a/excel/IP1b.xlsx
+++ b/excel/IP1b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Documents/IP1b/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanl\Documents\SCHOOL\FASE 4\Public Transportation Design and Management\IP1b\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05E1BA-00BC-9A44-A588-17A9F4FCFE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A26751-BAFE-4907-AA48-FF8672D3AB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OD" sheetId="2" r:id="rId1"/>
@@ -1079,6 +1079,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,48 +1107,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,6 +1127,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1168,7 +1168,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1186,7 +1186,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1197,34 +1197,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1232,6 +1205,7 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="2"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -2556,7 +2530,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-BE"/>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2583,7 +2557,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>OD!$Q$2:$Q$30</c:f>
+              <c:f>OD!$E$19:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2726,7 +2700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-BE"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2763,7 +2737,2136 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-BE"/>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B88C8ECE-B02A-4B41-B416-ADCE25DBB55D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-BE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FBE3EA03-E6F9-4BF0-9095-07A97AE94677}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-BE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2ECA7FD4-10F7-45D1-989D-664E8FDACA1C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-BE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1EB1A72D-D77E-4D50-A2DA-3B7713CE36B6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-BE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9243F1C3-389A-4101-A27D-A3B9CF7AEBF2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-BE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A5BA9270-D4DF-4793-8B95-7CAF7EE67762}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-BE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{060A9546-5B1D-4E09-818A-A832B7C30510}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-BE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>OD!$C$19:$D$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="29"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Leuven</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Landen</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Aarschot</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Hasselt</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Landen</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Aarschot</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Liège</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Sint-Truiden</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Landen</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Sint-Truiden</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Genk</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Genk</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Hasselt</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Heist</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Hasselt</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Heist</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Liège</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Alken</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Liège</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Sint-Truiden</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Sint-Truiden</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Sint-Truiden</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Heist</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Sint-Truiden</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Heist</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Landen</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Landen</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Liège</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Alken</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Brussels</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Brussels</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Brussels</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Brussels</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Leuven</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Leuven</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Alken</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Hasselt</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Alken</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Brussels</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Alken</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Hasselt</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Aarschot</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Brussel</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Leuven</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Aarschot</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aarschot</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Hasselt</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Hasselt</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Alken</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Landen</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Leuven</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Hasselt</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Genk</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Leuven</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Aarschot</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Heist</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Heist</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Aarschot</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OD!$E$19:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2656</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OD!$E$19:$E$25</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>50000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>39606</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19301</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13474</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10107</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8422</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E39A-4FD4-8C71-C7DAC0B2F70D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7062447506561681"/>
+          <c:y val="0.32030949256342955"/>
+          <c:w val="0.25764413823272092"/>
+          <c:h val="0.34086249635462229"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2775,6 +4878,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3282,6 +5425,607 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3315,6 +6059,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BB4646-A182-4244-899A-D85E9BE6A857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3586,21 +6366,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D2E1F-C888-4C89-B224-DA5153713A42}">
-  <dimension ref="B2:R31"/>
+  <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
@@ -3614,34 +6394,8 @@
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
-      <c r="O2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>50000</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="O3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>39606</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -3673,20 +6427,8 @@
       <c r="L4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>19301</v>
-      </c>
-      <c r="R4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3720,20 +6462,8 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>17024</v>
-      </c>
-      <c r="R5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3767,20 +6497,8 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>13474</v>
-      </c>
-      <c r="R6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3812,20 +6530,8 @@
       <c r="L7" s="3">
         <v>3000</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>10107</v>
-      </c>
-      <c r="R7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -3857,20 +6563,8 @@
       <c r="L8" s="3">
         <v>3704</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>8422</v>
-      </c>
-      <c r="R8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -3902,20 +6596,8 @@
       <c r="L9" s="3">
         <v>523</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>7422</v>
-      </c>
-      <c r="R9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3947,20 +6629,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>4109</v>
-      </c>
-      <c r="R10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
@@ -3992,20 +6662,8 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>3817</v>
-      </c>
-      <c r="R11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -4037,20 +6695,8 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3704</v>
-      </c>
-      <c r="R12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -4082,20 +6728,8 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>3000</v>
-      </c>
-      <c r="R13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -4127,35 +6761,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="O14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>2656</v>
-      </c>
-      <c r="R14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="O15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>2501</v>
-      </c>
-      <c r="R15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3">
         <f t="shared" ref="C16:L16" si="0">SUM(C6:C14)</f>
@@ -4197,20 +6807,8 @@
         <f t="shared" si="0"/>
         <v>7227</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -4223,214 +6821,426 @@
         <f>SUM(C5:L14)</f>
         <v>396810</v>
       </c>
-      <c r="O17" s="4" t="s">
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>39606</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19301</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17024</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>13474</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>8422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
         <v>14</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="1">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O19" s="1" t="s">
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="E36" s="3">
         <v>1000</v>
       </c>
-      <c r="R19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O20" s="1" t="s">
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="E37" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O21" s="1" t="s">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="E38" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O22" s="1" t="s">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="E39" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O23" s="1" t="s">
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="E40" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O24" s="4" t="s">
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>23</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
+      <c r="D41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
         <v>835</v>
       </c>
-      <c r="R24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O25" s="1" t="s">
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="E42" s="3">
         <v>523</v>
       </c>
-      <c r="R25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O26" s="1" t="s">
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>501</v>
       </c>
-      <c r="R26" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P27" s="1" t="s">
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="E44" s="3">
         <v>288</v>
       </c>
-      <c r="R27" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1" t="s">
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="E45" s="3">
         <v>245</v>
       </c>
-      <c r="R28" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>28</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="E46" s="3">
         <v>145</v>
       </c>
-      <c r="R29" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P30" s="1" t="s">
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="E47" s="3">
         <v>120</v>
       </c>
-      <c r="R30" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="O31" s="52" t="s">
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="5">
-        <f>SUM(Q2:Q30)</f>
+      <c r="D48" s="52"/>
+      <c r="E48" s="5">
+        <f>SUM(E19:E47)</f>
         <v>198400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4447,23 +7257,23 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="12"/>
-    <col min="2" max="2" width="9.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.1640625" style="12"/>
-    <col min="7" max="7" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.1640625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="12"/>
+    <col min="7" max="7" width="9.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="12"/>
     <col min="12" max="12" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1640625" style="12"/>
-    <col min="15" max="16" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.1640625" style="12"/>
+    <col min="13" max="14" width="9.140625" style="12"/>
+    <col min="15" max="16" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" style="12"/>
     <col min="20" max="20" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1640625" style="12"/>
+    <col min="21" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -4497,7 +7307,7 @@
       </c>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -4533,7 +7343,7 @@
       </c>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -4569,7 +7379,7 @@
       </c>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -4605,7 +7415,7 @@
       </c>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -4641,7 +7451,7 @@
       </c>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>108</v>
       </c>
@@ -4677,7 +7487,7 @@
       </c>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
@@ -4713,7 +7523,7 @@
       </c>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
@@ -4749,7 +7559,7 @@
       </c>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -4785,7 +7595,7 @@
       </c>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -4821,7 +7631,7 @@
       </c>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
@@ -4857,50 +7667,50 @@
       </c>
       <c r="M12" s="15"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="G15" s="58" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="G15" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="K15" s="56" t="s">
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="K15" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="O15" s="59" t="s">
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="O15" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-    </row>
-    <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-    </row>
-    <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="60" t="s">
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+    </row>
+    <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
@@ -4922,7 +7732,7 @@
       <c r="M17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="58" t="s">
         <v>1</v>
       </c>
       <c r="P17" s="16" t="s">
@@ -4932,7 +7742,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
@@ -4946,7 +7756,7 @@
         <f>F4</f>
         <v>119</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="54" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
@@ -4956,7 +7766,7 @@
         <f>E3+E4</f>
         <v>3491</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="58" t="s">
         <v>2</v>
       </c>
       <c r="L18" s="16" t="s">
@@ -4965,7 +7775,7 @@
       <c r="M18" s="16">
         <v>1745</v>
       </c>
-      <c r="O18" s="57"/>
+      <c r="O18" s="61"/>
       <c r="P18" s="16" t="s">
         <v>96</v>
       </c>
@@ -4973,7 +7783,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
@@ -4987,7 +7797,7 @@
         <f>D6</f>
         <v>121</v>
       </c>
-      <c r="G19" s="60"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="16" t="s">
         <v>80</v>
       </c>
@@ -4995,14 +7805,14 @@
         <f>E6+E7+E8</f>
         <v>8422</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="59"/>
       <c r="L19" s="16" t="s">
         <v>89</v>
       </c>
       <c r="M19" s="16">
         <v>4227</v>
       </c>
-      <c r="O19" s="57"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="16" t="s">
         <v>97</v>
       </c>
@@ -5010,7 +7820,7 @@
         <v>18024</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
@@ -5024,7 +7834,7 @@
         <f>J6</f>
         <v>8422</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="54" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -5033,7 +7843,7 @@
       <c r="I20" s="16">
         <v>14474</v>
       </c>
-      <c r="K20" s="54" t="s">
+      <c r="K20" s="58" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="16" t="s">
@@ -5042,7 +7852,7 @@
       <c r="M20" s="16">
         <v>43423</v>
       </c>
-      <c r="O20" s="57"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="16" t="s">
         <v>98</v>
       </c>
@@ -5050,7 +7860,7 @@
         <v>18024</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
@@ -5063,21 +7873,21 @@
       <c r="E21" s="7">
         <v>152</v>
       </c>
-      <c r="G21" s="60"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="16" t="s">
         <v>82</v>
       </c>
       <c r="I21" s="16">
         <v>7718</v>
       </c>
-      <c r="K21" s="57"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="16" t="s">
         <v>91</v>
       </c>
       <c r="M21" s="16">
         <v>23155</v>
       </c>
-      <c r="O21" s="57"/>
+      <c r="O21" s="61"/>
       <c r="P21" s="16" t="s">
         <v>105</v>
       </c>
@@ -5085,7 +7895,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
@@ -5098,21 +7908,21 @@
       <c r="E22" s="7">
         <v>136</v>
       </c>
-      <c r="G22" s="60"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="16" t="s">
         <v>83</v>
       </c>
       <c r="I22" s="16">
         <v>4890</v>
       </c>
-      <c r="K22" s="55"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="16" t="s">
         <v>92</v>
       </c>
       <c r="M22" s="16">
         <v>0</v>
       </c>
-      <c r="O22" s="55"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="16" t="s">
         <v>106</v>
       </c>
@@ -5120,7 +7930,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
@@ -5133,7 +7943,7 @@
       <c r="E23" s="7">
         <v>298</v>
       </c>
-      <c r="O23" s="54" t="s">
+      <c r="O23" s="58" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="16" t="s">
@@ -5143,7 +7953,7 @@
         <v>9054</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
@@ -5156,7 +7966,7 @@
       <c r="E24" s="7">
         <v>245</v>
       </c>
-      <c r="O24" s="55"/>
+      <c r="O24" s="59"/>
       <c r="P24" s="16" t="s">
         <v>102</v>
       </c>
@@ -5164,7 +7974,7 @@
         <v>9054</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
@@ -5177,7 +7987,7 @@
       <c r="E25" s="7">
         <v>14671</v>
       </c>
-      <c r="O25" s="54" t="s">
+      <c r="O25" s="58" t="s">
         <v>17</v>
       </c>
       <c r="P25" s="16" t="s">
@@ -5187,17 +7997,17 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="61" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="12">
         <f>SUM(E18:E25)</f>
         <v>24164</v>
       </c>
-      <c r="O26" s="55"/>
+      <c r="O26" s="59"/>
       <c r="P26" s="16" t="s">
         <v>103</v>
       </c>
@@ -5205,8 +8015,8 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O27" s="54" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O27" s="58" t="s">
         <v>5</v>
       </c>
       <c r="P27" s="16" t="s">
@@ -5216,8 +8026,8 @@
         <v>5817</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="O28" s="55"/>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O28" s="59"/>
       <c r="P28" s="16" t="s">
         <v>101</v>
       </c>
@@ -5227,11 +8037,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G22"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="K15:M16"/>
     <mergeCell ref="K18:K19"/>
@@ -5241,6 +8046,11 @@
     <mergeCell ref="O17:O22"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="O25:O26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5255,25 +8065,25 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="12"/>
-    <col min="2" max="2" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="12"/>
     <col min="7" max="7" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9.1640625" style="12"/>
-    <col min="13" max="13" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="12"/>
-    <col min="17" max="17" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="12"/>
+    <col min="8" max="8" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="12"/>
+    <col min="13" max="13" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="12"/>
+    <col min="17" max="17" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -5306,7 +8116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -5376,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -5411,7 +8221,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
@@ -5444,7 +8254,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -5479,7 +8289,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
@@ -5514,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
@@ -5549,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -5584,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -5619,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
@@ -5654,7 +8464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D13" s="28">
         <f>SUM(D3:D12)</f>
         <v>36073</v>
@@ -5672,13 +8482,13 @@
         <v>77082</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="67" t="s">
+    <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="25"/>
       <c r="J15" s="26"/>
       <c r="N15" s="19"/>
@@ -5686,11 +8496,11 @@
       <c r="P15" s="43"/>
       <c r="Q15" s="43"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="25"/>
       <c r="J16" s="26"/>
       <c r="N16" s="19"/>
@@ -5698,17 +8508,17 @@
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="64" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>139</v>
       </c>
@@ -5723,7 +8533,7 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>140</v>
       </c>
@@ -5738,7 +8548,7 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>141</v>
       </c>
@@ -5753,7 +8563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>142</v>
       </c>
@@ -5768,7 +8578,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>143</v>
       </c>
@@ -5783,7 +8593,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>144</v>
       </c>
@@ -5798,7 +8608,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>145</v>
       </c>
@@ -5813,7 +8623,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>77</v>
       </c>
@@ -5828,7 +8638,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>184</v>
       </c>
@@ -5846,7 +8656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>146</v>
       </c>
@@ -5864,7 +8674,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>147</v>
       </c>
@@ -5882,7 +8692,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>148</v>
       </c>
@@ -5899,46 +8709,46 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="61" t="s">
+    <row r="30" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="12">
         <f>SUM(E18:E29)</f>
         <v>18882</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M31" s="74" t="s">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M31" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="76"/>
-    </row>
-    <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="68" t="s">
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="66"/>
+    </row>
+    <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="79"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-    </row>
-    <row r="34" spans="2:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="69"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
         <v>85</v>
       </c>
@@ -5961,8 +8771,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="60" t="s">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -5974,23 +8784,23 @@
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="M35" s="60" t="s">
+      <c r="M35" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="N35" s="60" t="s">
+      <c r="N35" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60" t="s">
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="R35" s="60" t="s">
+      <c r="R35" s="54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="60"/>
+    <row r="36" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="54"/>
       <c r="C36" s="28" t="s">
         <v>154</v>
       </c>
@@ -6017,7 +8827,7 @@
         <f>E13</f>
         <v>34937</v>
       </c>
-      <c r="M36" s="60"/>
+      <c r="M36" s="54"/>
       <c r="N36" s="28" t="s">
         <v>46</v>
       </c>
@@ -6027,11 +8837,11 @@
       <c r="P36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="60" t="s">
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -6066,8 +8876,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="60"/>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="54"/>
       <c r="C38" s="28" t="s">
         <v>156</v>
       </c>
@@ -6112,8 +8922,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="60" t="s">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -6148,8 +8958,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="60"/>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="54"/>
       <c r="C40" s="28" t="s">
         <v>158</v>
       </c>
@@ -6182,8 +8992,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="60"/>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="54"/>
       <c r="C41" s="28" t="s">
         <v>159</v>
       </c>
@@ -6232,8 +9042,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="60" t="s">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -6268,8 +9078,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="60"/>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="54"/>
       <c r="C43" s="28" t="s">
         <v>161</v>
       </c>
@@ -6302,8 +9112,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="60"/>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="54"/>
       <c r="C44" s="28" t="s">
         <v>162</v>
       </c>
@@ -6336,8 +9146,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" s="60"/>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="54"/>
       <c r="C45" s="28" t="s">
         <v>163</v>
       </c>
@@ -6382,7 +9192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="M46" s="44" t="s">
         <v>146</v>
       </c>
@@ -6408,7 +9218,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="M47" s="44" t="s">
         <v>147</v>
       </c>
@@ -6431,12 +9241,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="72" t="s">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
       <c r="M48" s="44" t="s">
         <v>148</v>
       </c>
@@ -6462,12 +9272,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="45" t="s">
         <v>103</v>
       </c>
@@ -6475,14 +9285,14 @@
         <f>NewVolumes!F8+NewVolumes!F9</f>
         <v>4109</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="70" t="s">
         <v>173</v>
       </c>
       <c r="R50" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="47" t="s">
         <v>102</v>
       </c>
@@ -6490,9 +9300,9 @@
         <f>NewVolumes!E8+NewVolumes!E7+NewVolumes!J7+NewVolumes!L7+NewVolumes!L8+NewVolumes!J8</f>
         <v>7945</v>
       </c>
-      <c r="D51" s="70"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D51" s="71"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="47" t="s">
         <v>172</v>
       </c>
@@ -6500,9 +9310,9 @@
         <f>NewVolumes!J6</f>
         <v>8422</v>
       </c>
-      <c r="D52" s="70"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D52" s="71"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="47" t="s">
         <v>99</v>
       </c>
@@ -6510,9 +9320,9 @@
         <f>NewVolumes!G5+NewVolumes!G12</f>
         <v>7945</v>
       </c>
-      <c r="D53" s="70"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D53" s="71"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="47" t="s">
         <v>100</v>
       </c>
@@ -6520,18 +9330,18 @@
         <f>NewVolumes!H6+NewVolumes!K6</f>
         <v>4109</v>
       </c>
-      <c r="D54" s="70"/>
-    </row>
-    <row r="55" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="71"/>
+    </row>
+    <row r="55" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="49" t="s">
         <v>101</v>
       </c>
       <c r="C55" s="50">
         <v>0</v>
       </c>
-      <c r="D55" s="71"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="45" t="s">
         <v>168</v>
       </c>
@@ -6539,20 +9349,20 @@
         <f>NewVolumes!K8+NewVolumes!K7</f>
         <v>43423</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="70" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="49" t="s">
         <v>171</v>
       </c>
       <c r="C57" s="50">
         <v>0</v>
       </c>
-      <c r="D57" s="71"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D57" s="72"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="45" t="s">
         <v>105</v>
       </c>
@@ -6560,20 +9370,20 @@
         <f>NewVolumes!C9+NewVolumes!C11</f>
         <v>3002</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="70" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="47" t="s">
         <v>175</v>
       </c>
       <c r="C59" s="48">
         <v>0</v>
       </c>
-      <c r="D59" s="70"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D59" s="71"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="47" t="s">
         <v>106</v>
       </c>
@@ -6581,9 +9391,9 @@
         <f>NewVolumes!I3+NewVolumes!K3</f>
         <v>3002</v>
       </c>
-      <c r="D60" s="70"/>
-    </row>
-    <row r="61" spans="2:18" s="31" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="71"/>
+    </row>
+    <row r="61" spans="2:18" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="49" t="s">
         <v>170</v>
       </c>
@@ -6591,9 +9401,9 @@
         <f>NewVolumes!K3+NewVolumes!K4/2</f>
         <v>12151.5</v>
       </c>
-      <c r="D61" s="71"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D61" s="72"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
         <v>97</v>
       </c>
@@ -6601,11 +9411,11 @@
         <f>NewVolumes!E11+NewVolumes!E9+NewVolumes!J11+NewVolumes!L11+NewVolumes!J9+NewVolumes!L9</f>
         <v>19024</v>
       </c>
-      <c r="D62" s="69" t="s">
+      <c r="D62" s="70" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="40" t="s">
         <v>177</v>
       </c>
@@ -6613,9 +9423,9 @@
         <f>NewVolumes!L3+NewVolumes!L4</f>
         <v>0</v>
       </c>
-      <c r="D63" s="70"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D63" s="71"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="40" t="s">
         <v>98</v>
       </c>
@@ -6623,9 +9433,9 @@
         <f>NewVolumes!I5+NewVolumes!K5+NewVolumes!I12+NewVolumes!K12+NewVolumes!I10+NewVolumes!K10</f>
         <v>19024</v>
       </c>
-      <c r="D64" s="70"/>
-    </row>
-    <row r="65" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="71"/>
+    </row>
+    <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41" t="s">
         <v>169</v>
       </c>
@@ -6633,10 +9443,21 @@
         <f>NewVolumes!K12+NewVolumes!K5+NewVolumes!K4/2</f>
         <v>26674.5</v>
       </c>
-      <c r="D65" s="71"/>
+      <c r="D65" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B48:D49"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="M31:R32"/>
@@ -6644,17 +9465,6 @@
     <mergeCell ref="D62:D65"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6668,51 +9478,51 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.1640625" style="12"/>
-    <col min="5" max="5" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.1640625" style="12"/>
-    <col min="9" max="9" width="11.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="12"/>
+    <col min="5" max="5" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="12"/>
+    <col min="9" max="9" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="12"/>
-    <col min="12" max="12" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="12"/>
+    <col min="11" max="11" width="9.140625" style="12"/>
+    <col min="12" max="12" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>46</v>
       </c>
@@ -6737,13 +9547,13 @@
       <c r="I4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
@@ -6780,7 +9590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
@@ -6817,7 +9627,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
@@ -6854,7 +9664,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
@@ -6891,7 +9701,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
@@ -6928,7 +9738,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
@@ -6965,7 +9775,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
@@ -7002,7 +9812,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
@@ -7039,7 +9849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F13" s="16" t="s">
         <v>38</v>
       </c>
@@ -7063,7 +9873,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F14" s="16" t="s">
         <v>39</v>
       </c>
@@ -7077,13 +9887,13 @@
         <f t="shared" si="0"/>
         <v>0.87255000000000005</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F15" s="16" t="s">
         <v>40</v>
       </c>
@@ -7107,7 +9917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F16" s="16" t="s">
         <v>41</v>
       </c>
@@ -7131,7 +9941,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F17" s="16" t="s">
         <v>42</v>
       </c>
@@ -7155,7 +9965,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F18" s="16" t="s">
         <v>43</v>
       </c>
@@ -7179,7 +9989,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J19" s="16" t="s">
         <v>68</v>
       </c>
@@ -7190,7 +10000,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="20" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J20" s="16" t="s">
         <v>69</v>
       </c>
@@ -7201,7 +10011,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J21" s="16" t="s">
         <v>70</v>
       </c>
@@ -7212,7 +10022,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J22" s="16" t="s">
         <v>71</v>
       </c>
@@ -7223,7 +10033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
       <c r="J23" s="16" t="s">
         <v>72</v>
       </c>
@@ -7251,47 +10061,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CDF4A3-B970-43C2-9AE1-B11F771813DE}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="134" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>46</v>
       </c>
@@ -7316,7 +10126,7 @@
       <c r="I4" s="81"/>
       <c r="J4" s="82"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="str">
         <f>NewVolumes!B18</f>
         <v>K10C21</v>
@@ -7354,7 +10164,7 @@
         <v>2.8902000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="str">
         <f>NewVolumes!B19</f>
         <v>C10K21</v>
@@ -7387,7 +10197,7 @@
         <v>2.8902000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="str">
         <f>NewVolumes!B20</f>
         <v>E10K20</v>
@@ -7421,7 +10231,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="str">
         <f>NewVolumes!B21</f>
         <v>K11E21</v>
@@ -7455,7 +10265,7 @@
         <v>7.2599999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="str">
         <f>NewVolumes!B22</f>
         <v>E11M10</v>
@@ -7489,7 +10299,7 @@
         <v>0.58800000000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>NewVolumes!B23</f>
         <v>M11E10</v>
@@ -7522,7 +10332,7 @@
         <v>0.58800000000000008</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="str">
         <f>NewVolumes!B24</f>
         <v>K11E10</v>
@@ -7556,7 +10366,7 @@
         <v>2.5362</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="str">
         <f>NewVolumes!B25</f>
         <v>E10K11</v>
@@ -7590,7 +10400,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="str">
         <f>NewVolumes!B26</f>
         <v>M11C20</v>
@@ -7623,7 +10433,7 @@
         <v>0.2364</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="str">
         <f>NewVolumes!B27</f>
         <v>C11M20</v>
@@ -7657,7 +10467,7 @@
         <v>0.31979999999999997</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="str">
         <f>NewVolumes!B28</f>
         <v>E11C20</v>
@@ -7691,7 +10501,7 @@
         <v>8.9400000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="str">
         <f>NewVolumes!B29</f>
         <v>C11E20</v>
@@ -7725,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="E17" s="44" t="s">
@@ -7749,7 +10559,7 @@
         <v>11.329200000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -7770,7 +10580,7 @@
       <c r="I18" s="81"/>
       <c r="J18" s="82"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E19" s="44" t="s">
         <v>41</v>
       </c>
@@ -7788,7 +10598,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E20" s="44" t="s">
         <v>138</v>
       </c>
@@ -7805,70 +10615,70 @@
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H21" s="32" t="s">
         <v>123</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H22" s="32" t="s">
         <v>124</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H23" s="32" t="s">
         <v>125</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H24" s="32" t="s">
         <v>126</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H25" s="32" t="s">
         <v>127</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H26" s="32" t="s">
         <v>128</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H27" s="32" t="s">
         <v>129</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H28" s="33" t="s">
         <v>130</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H29" s="32" t="s">
         <v>131</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H30" s="32" t="s">
         <v>120</v>
       </c>

--- a/excel/IP1b.xlsx
+++ b/excel/IP1b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanl\Documents\SCHOOL\FASE 4\Public Transportation Design and Management\IP1b\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A26751-BAFE-4907-AA48-FF8672D3AB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3763A8-F43D-4F8A-BE2E-4F2F1BA9F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OD" sheetId="2" r:id="rId1"/>
@@ -735,7 +735,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -930,11 +930,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1079,18 +1088,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,6 +1104,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,36 +1166,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1166,6 +1175,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3531,7 +3544,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B88C8ECE-B02A-4B41-B416-ADCE25DBB55D}" type="CELLRANGE">
+                    <a:fld id="{3B2DD189-EEE3-4FCF-9A45-7DE12DF22F39}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3550,7 +3563,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3565,7 +3577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBE3EA03-E6F9-4BF0-9095-07A97AE94677}" type="CELLRANGE">
+                    <a:fld id="{C8DB97C5-6761-4362-9507-460DBD27CC23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3599,7 +3611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2ECA7FD4-10F7-45D1-989D-664E8FDACA1C}" type="CELLRANGE">
+                    <a:fld id="{325F2FFA-B623-4C66-A5D6-9CAD8DDDC218}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3633,7 +3645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EB1A72D-D77E-4D50-A2DA-3B7713CE36B6}" type="CELLRANGE">
+                    <a:fld id="{38C9D8C3-1A8D-4EB1-A9CA-957E750D9263}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3667,7 +3679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9243F1C3-389A-4101-A27D-A3B9CF7AEBF2}" type="CELLRANGE">
+                    <a:fld id="{993BB121-79DB-4856-9B93-381FE50364AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3701,7 +3713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5BA9270-D4DF-4793-8B95-7CAF7EE67762}" type="CELLRANGE">
+                    <a:fld id="{7517FE8C-C63F-4C68-910E-F657699F97A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3735,7 +3747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{060A9546-5B1D-4E09-818A-A832B7C30510}" type="CELLRANGE">
+                    <a:fld id="{D6F6F3D8-A717-4B19-9CC7-8A85DF41A684}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6368,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D2E1F-C888-4C89-B224-DA5153713A42}">
   <dimension ref="B2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6377,7 +6389,8 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -6829,7 +6842,7 @@
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="83" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2">
@@ -6843,7 +6856,7 @@
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="83" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2">
@@ -6857,7 +6870,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="84" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="3">
@@ -6871,7 +6884,7 @@
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="84" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3">
@@ -6885,7 +6898,7 @@
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="83" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="2">
@@ -6899,7 +6912,7 @@
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="84" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="3">
@@ -6913,7 +6926,7 @@
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="84" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="3">
@@ -6927,7 +6940,7 @@
       <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="84" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="3">
@@ -6941,7 +6954,7 @@
       <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="84" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="3">
@@ -6955,7 +6968,7 @@
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="85" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="3">
@@ -6969,7 +6982,7 @@
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="85" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="3">
@@ -6983,7 +6996,7 @@
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="85" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1">
@@ -6997,7 +7010,7 @@
       <c r="C31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="86" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="4">
@@ -7011,7 +7024,7 @@
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="85" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="1">
@@ -7025,7 +7038,7 @@
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="85" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="3">
@@ -7039,7 +7052,7 @@
       <c r="C34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="86" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="4">
@@ -7053,7 +7066,7 @@
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="85" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="3">
@@ -7067,7 +7080,7 @@
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="85" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="3">
@@ -7081,7 +7094,7 @@
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="85" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="3">
@@ -7095,7 +7108,7 @@
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="85" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="3">
@@ -7109,7 +7122,7 @@
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="85" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="3">
@@ -7123,7 +7136,7 @@
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="85" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="3">
@@ -7137,7 +7150,7 @@
       <c r="C41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="86" t="s">
         <v>0</v>
       </c>
       <c r="E41" s="4">
@@ -7151,7 +7164,7 @@
       <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="85" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="3">
@@ -7165,7 +7178,7 @@
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="85" t="s">
         <v>0</v>
       </c>
       <c r="E43" s="3">
@@ -7179,7 +7192,7 @@
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="85" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="3">
@@ -7193,7 +7206,7 @@
       <c r="C45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="85" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="3">
@@ -7207,7 +7220,7 @@
       <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="84" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="3">
@@ -7221,7 +7234,7 @@
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="85" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="3">
@@ -7668,49 +7681,49 @@
       <c r="M12" s="15"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="G15" s="62" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="K15" s="60" t="s">
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="K15" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="O15" s="63" t="s">
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="O15" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
@@ -7732,7 +7745,7 @@
       <c r="M17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="54" t="s">
         <v>1</v>
       </c>
       <c r="P17" s="16" t="s">
@@ -7756,7 +7769,7 @@
         <f>F4</f>
         <v>119</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="60" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
@@ -7766,7 +7779,7 @@
         <f>E3+E4</f>
         <v>3491</v>
       </c>
-      <c r="K18" s="58" t="s">
+      <c r="K18" s="54" t="s">
         <v>2</v>
       </c>
       <c r="L18" s="16" t="s">
@@ -7775,7 +7788,7 @@
       <c r="M18" s="16">
         <v>1745</v>
       </c>
-      <c r="O18" s="61"/>
+      <c r="O18" s="57"/>
       <c r="P18" s="16" t="s">
         <v>96</v>
       </c>
@@ -7797,7 +7810,7 @@
         <f>D6</f>
         <v>121</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="16" t="s">
         <v>80</v>
       </c>
@@ -7805,14 +7818,14 @@
         <f>E6+E7+E8</f>
         <v>8422</v>
       </c>
-      <c r="K19" s="59"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="16" t="s">
         <v>89</v>
       </c>
       <c r="M19" s="16">
         <v>4227</v>
       </c>
-      <c r="O19" s="61"/>
+      <c r="O19" s="57"/>
       <c r="P19" s="16" t="s">
         <v>97</v>
       </c>
@@ -7834,7 +7847,7 @@
         <f>J6</f>
         <v>8422</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -7843,7 +7856,7 @@
       <c r="I20" s="16">
         <v>14474</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="54" t="s">
         <v>6</v>
       </c>
       <c r="L20" s="16" t="s">
@@ -7852,7 +7865,7 @@
       <c r="M20" s="16">
         <v>43423</v>
       </c>
-      <c r="O20" s="61"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="16" t="s">
         <v>98</v>
       </c>
@@ -7873,21 +7886,21 @@
       <c r="E21" s="7">
         <v>152</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="16" t="s">
         <v>82</v>
       </c>
       <c r="I21" s="16">
         <v>7718</v>
       </c>
-      <c r="K21" s="61"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="16" t="s">
         <v>91</v>
       </c>
       <c r="M21" s="16">
         <v>23155</v>
       </c>
-      <c r="O21" s="61"/>
+      <c r="O21" s="57"/>
       <c r="P21" s="16" t="s">
         <v>105</v>
       </c>
@@ -7908,21 +7921,21 @@
       <c r="E22" s="7">
         <v>136</v>
       </c>
-      <c r="G22" s="54"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="16" t="s">
         <v>83</v>
       </c>
       <c r="I22" s="16">
         <v>4890</v>
       </c>
-      <c r="K22" s="59"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="16" t="s">
         <v>92</v>
       </c>
       <c r="M22" s="16">
         <v>0</v>
       </c>
-      <c r="O22" s="59"/>
+      <c r="O22" s="55"/>
       <c r="P22" s="16" t="s">
         <v>106</v>
       </c>
@@ -7943,7 +7956,7 @@
       <c r="E23" s="7">
         <v>298</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="O23" s="54" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="16" t="s">
@@ -7966,7 +7979,7 @@
       <c r="E24" s="7">
         <v>245</v>
       </c>
-      <c r="O24" s="59"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="16" t="s">
         <v>102</v>
       </c>
@@ -7987,7 +8000,7 @@
       <c r="E25" s="7">
         <v>14671</v>
       </c>
-      <c r="O25" s="58" t="s">
+      <c r="O25" s="54" t="s">
         <v>17</v>
       </c>
       <c r="P25" s="16" t="s">
@@ -7998,16 +8011,16 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="12">
         <f>SUM(E18:E25)</f>
         <v>24164</v>
       </c>
-      <c r="O26" s="59"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="16" t="s">
         <v>103</v>
       </c>
@@ -8016,7 +8029,7 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O27" s="58" t="s">
+      <c r="O27" s="54" t="s">
         <v>5</v>
       </c>
       <c r="P27" s="16" t="s">
@@ -8027,7 +8040,7 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O28" s="59"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="16" t="s">
         <v>101</v>
       </c>
@@ -8037,6 +8050,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G22"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="K15:M16"/>
     <mergeCell ref="K18:K19"/>
@@ -8046,11 +8064,6 @@
     <mergeCell ref="O17:O22"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="O25:O26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8483,12 +8496,12 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="25"/>
       <c r="J15" s="26"/>
       <c r="N15" s="19"/>
@@ -8497,10 +8510,10 @@
       <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
       <c r="F16" s="25"/>
       <c r="J16" s="26"/>
       <c r="N16" s="19"/>
@@ -8509,11 +8522,11 @@
       <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="16" t="s">
         <v>18</v>
       </c>
@@ -8710,43 +8723,43 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="12">
         <f>SUM(E18:E29)</f>
         <v>18882</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M31" s="64" t="s">
+      <c r="M31" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="66"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="76"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="69"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="79"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="30" t="s">
@@ -8772,7 +8785,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="60" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -8784,23 +8797,23 @@
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="M35" s="54" t="s">
+      <c r="M35" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="N35" s="54" t="s">
+      <c r="N35" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54" t="s">
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="R35" s="54" t="s">
+      <c r="R35" s="60" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="54"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="28" t="s">
         <v>154</v>
       </c>
@@ -8827,7 +8840,7 @@
         <f>E13</f>
         <v>34937</v>
       </c>
-      <c r="M36" s="54"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="28" t="s">
         <v>46</v>
       </c>
@@ -8837,11 +8850,11 @@
       <c r="P36" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="60" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="28" t="s">
@@ -8877,7 +8890,7 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="54"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="28" t="s">
         <v>156</v>
       </c>
@@ -8923,7 +8936,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -8959,7 +8972,7 @@
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B40" s="54"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="28" t="s">
         <v>158</v>
       </c>
@@ -8993,7 +9006,7 @@
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B41" s="54"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="28" t="s">
         <v>159</v>
       </c>
@@ -9043,7 +9056,7 @@
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -9079,7 +9092,7 @@
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B43" s="54"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="28" t="s">
         <v>161</v>
       </c>
@@ -9113,7 +9126,7 @@
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B44" s="54"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="28" t="s">
         <v>162</v>
       </c>
@@ -9147,7 +9160,7 @@
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="54"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="28" t="s">
         <v>163</v>
       </c>
@@ -9242,11 +9255,11 @@
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
       <c r="M48" s="44" t="s">
         <v>148</v>
       </c>
@@ -9273,9 +9286,9 @@
       </c>
     </row>
     <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="45" t="s">
@@ -9285,7 +9298,7 @@
         <f>NewVolumes!F8+NewVolumes!F9</f>
         <v>4109</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="69" t="s">
         <v>173</v>
       </c>
       <c r="R50" s="12" t="s">
@@ -9300,7 +9313,7 @@
         <f>NewVolumes!E8+NewVolumes!E7+NewVolumes!J7+NewVolumes!L7+NewVolumes!L8+NewVolumes!J8</f>
         <v>7945</v>
       </c>
-      <c r="D51" s="71"/>
+      <c r="D51" s="70"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="47" t="s">
@@ -9310,7 +9323,7 @@
         <f>NewVolumes!J6</f>
         <v>8422</v>
       </c>
-      <c r="D52" s="71"/>
+      <c r="D52" s="70"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="47" t="s">
@@ -9320,7 +9333,7 @@
         <f>NewVolumes!G5+NewVolumes!G12</f>
         <v>7945</v>
       </c>
-      <c r="D53" s="71"/>
+      <c r="D53" s="70"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="47" t="s">
@@ -9330,7 +9343,7 @@
         <f>NewVolumes!H6+NewVolumes!K6</f>
         <v>4109</v>
       </c>
-      <c r="D54" s="71"/>
+      <c r="D54" s="70"/>
     </row>
     <row r="55" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="49" t="s">
@@ -9339,7 +9352,7 @@
       <c r="C55" s="50">
         <v>0</v>
       </c>
-      <c r="D55" s="72"/>
+      <c r="D55" s="71"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="45" t="s">
@@ -9349,7 +9362,7 @@
         <f>NewVolumes!K8+NewVolumes!K7</f>
         <v>43423</v>
       </c>
-      <c r="D56" s="70" t="s">
+      <c r="D56" s="69" t="s">
         <v>174</v>
       </c>
     </row>
@@ -9360,7 +9373,7 @@
       <c r="C57" s="50">
         <v>0</v>
       </c>
-      <c r="D57" s="72"/>
+      <c r="D57" s="71"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="45" t="s">
@@ -9370,7 +9383,7 @@
         <f>NewVolumes!C9+NewVolumes!C11</f>
         <v>3002</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="69" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9381,7 +9394,7 @@
       <c r="C59" s="48">
         <v>0</v>
       </c>
-      <c r="D59" s="71"/>
+      <c r="D59" s="70"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="47" t="s">
@@ -9391,7 +9404,7 @@
         <f>NewVolumes!I3+NewVolumes!K3</f>
         <v>3002</v>
       </c>
-      <c r="D60" s="71"/>
+      <c r="D60" s="70"/>
     </row>
     <row r="61" spans="2:18" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="49" t="s">
@@ -9401,7 +9414,7 @@
         <f>NewVolumes!K3+NewVolumes!K4/2</f>
         <v>12151.5</v>
       </c>
-      <c r="D61" s="72"/>
+      <c r="D61" s="71"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
@@ -9411,7 +9424,7 @@
         <f>NewVolumes!E11+NewVolumes!E9+NewVolumes!J11+NewVolumes!L11+NewVolumes!J9+NewVolumes!L9</f>
         <v>19024</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="69" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9423,7 +9436,7 @@
         <f>NewVolumes!L3+NewVolumes!L4</f>
         <v>0</v>
       </c>
-      <c r="D63" s="71"/>
+      <c r="D63" s="70"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="40" t="s">
@@ -9433,7 +9446,7 @@
         <f>NewVolumes!I5+NewVolumes!K5+NewVolumes!I12+NewVolumes!K12+NewVolumes!I10+NewVolumes!K10</f>
         <v>19024</v>
       </c>
-      <c r="D64" s="71"/>
+      <c r="D64" s="70"/>
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="41" t="s">
@@ -9443,21 +9456,10 @@
         <f>NewVolumes!K12+NewVolumes!K5+NewVolumes!K4/2</f>
         <v>26674.5</v>
       </c>
-      <c r="D65" s="72"/>
+      <c r="D65" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B48:D49"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="M31:R32"/>
@@ -9465,6 +9467,17 @@
     <mergeCell ref="D62:D65"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9491,36 +9504,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -9547,11 +9560,11 @@
       <c r="I4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -9887,11 +9900,11 @@
         <f t="shared" si="0"/>
         <v>0.87255000000000005</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F15" s="16" t="s">
@@ -10061,7 +10074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CDF4A3-B970-43C2-9AE1-B11F771813DE}">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="134" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -10074,32 +10087,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
